--- a/trunk/Documents/Plan/BaoLong_HungPV__plan_4_7_2012.xlsx
+++ b/trunk/Documents/Plan/BaoLong_HungPV__plan_4_7_2012.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -96,13 +96,22 @@
   </si>
   <si>
     <t>Bỏ phần tìm kiếm theo danh mục ở các table không có danh mục.</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>còn javascript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -232,11 +241,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +284,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -273,16 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -291,6 +314,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,6 +397,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -403,6 +432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,34 +608,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,7 +652,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -635,8 +665,11 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45">
+      <c r="E4" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -649,8 +682,11 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -663,8 +699,11 @@
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.25" customHeight="1">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -678,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -689,8 +728,11 @@
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -704,21 +746,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
-      <c r="A10" s="14">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -732,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -746,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -770,24 +815,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Documents/Plan/BaoLong_HungPV__plan_4_7_2012.xlsx
+++ b/trunk/Documents/Plan/BaoLong_HungPV__plan_4_7_2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +715,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/trunk/Documents/Plan/BaoLong_HungPV__plan_4_7_2012.xlsx
+++ b/trunk/Documents/Plan/BaoLong_HungPV__plan_4_7_2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>còn javascript</t>
   </si>
 </sst>
 </file>
@@ -611,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,6 +745,9 @@
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -779,6 +779,9 @@
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -793,6 +796,9 @@
       <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -806,6 +812,9 @@
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
